--- a/medicine/Psychotrope/Vin_et_cuisine/Vin_et_cuisine.xlsx
+++ b/medicine/Psychotrope/Vin_et_cuisine/Vin_et_cuisine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mariage vin et cuisine remonte à l'Antiquité. Il va traverser le Moyen Âge, s'enrichir à la Renaissance et devenir un véritable classique de nos jours. On doit distinguer dans cette alliance la cuisine du vin et la cuisine au vin qui ont été et restent les deux façons d'utiliser les apports qualitatifs du vin en gastronomie.
 </t>
@@ -511,9 +523,11 @@
           <t>Type de vin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vins utilisés ont été pendant longtemps désignés sous le terme générique « vin de cuisine ». Cette catégorisation laissait à penser que « quelque chose qui n'est pas assez bon à boire pourrait l'être à préparer de la nourriture[1] ». Si ce fut le cas pendant tout le Moyen Âge où l'ajout massif d'épices et de miel dans le vin camouflait son aigrissement, il n'en est plus rien[2]. La seule différence entre un grand cru et un vin de table ce sont les rendements à l'hectare et leurs terroirs, pour le reste on trouve la même quantité d'eau et d'alcool qui, d'ailleurs, s'éliminent à la cuisson. Un vin plat et maigre sera tout aussi peu satisfaisant dans le verre que dans la saucière[1]. Par contre, l'expérience a démontré qu'une légère acidité volatile dans la cuisine du vin peut se révéler bénéfique. Le bouquet d'un vin et ses arômes s'évanouissent à la cuisson tandis que celle-ci concentre sa structure et exhale les qualités liées à son terroir[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins utilisés ont été pendant longtemps désignés sous le terme générique « vin de cuisine ». Cette catégorisation laissait à penser que « quelque chose qui n'est pas assez bon à boire pourrait l'être à préparer de la nourriture ». Si ce fut le cas pendant tout le Moyen Âge où l'ajout massif d'épices et de miel dans le vin camouflait son aigrissement, il n'en est plus rien. La seule différence entre un grand cru et un vin de table ce sont les rendements à l'hectare et leurs terroirs, pour le reste on trouve la même quantité d'eau et d'alcool qui, d'ailleurs, s'éliminent à la cuisson. Un vin plat et maigre sera tout aussi peu satisfaisant dans le verre que dans la saucière. Par contre, l'expérience a démontré qu'une légère acidité volatile dans la cuisine du vin peut se révéler bénéfique. Le bouquet d'un vin et ses arômes s'évanouissent à la cuisson tandis que celle-ci concentre sa structure et exhale les qualités liées à son terroir.
 </t>
         </is>
       </c>
@@ -544,12 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Confit, gelée et vin cuit
-Dès l'Antiquité, le conditum paradoxum et le defrutum sont des adjuvants culinaires essentiels dans la cuisine romaine[3]. Leurs héritiers sont l'arrope, le raisiné, le vin cuit, le vincotto ou le vino cotto[4].
-Accompagnement et apéritif
-Nombre de pratiques héritées du Moyen Âge et de la Renaissance ont perduré. La découverte des auteurs antiques vantant les « vins doux comme le miel », les fruits nouveaux rapportés des échelles du Levant puis des Amériques ont enrichi la gamme gustative des vins jusqu'à nos jours.
-Sauces
-Les sauces constituent le dernier volet du vin cuisiné. On peut les subdiviser en trois grands groupes. Celles où domine la tomate, celles à base d'échalotes et celles qui nécessitent une liaison au beurre. Font bande à part la sauce Cumberland avec sa gelée de groseille et la marinade qui utilise tant le vin rouge que le vin blanc.
+          <t>Confit, gelée et vin cuit</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès l'Antiquité, le conditum paradoxum et le defrutum sont des adjuvants culinaires essentiels dans la cuisine romaine. Leurs héritiers sont l'arrope, le raisiné, le vin cuit, le vincotto ou le vino cotto.
 </t>
         </is>
       </c>
@@ -575,25 +590,569 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cuisine au vin</t>
+          <t>Cuisine du vin</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Accompagnement et apéritif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nombre de pratiques héritées du Moyen Âge et de la Renaissance ont perduré. La découverte des auteurs antiques vantant les « vins doux comme le miel », les fruits nouveaux rapportés des échelles du Levant puis des Amériques ont enrichi la gamme gustative des vins jusqu'à nos jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cuisine du vin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sauces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sauces constituent le dernier volet du vin cuisiné. On peut les subdiviser en trois grands groupes. Celles où domine la tomate, celles à base d'échalotes et celles qui nécessitent une liaison au beurre. Font bande à part la sauce Cumberland avec sa gelée de groseille et la marinade qui utilise tant le vin rouge que le vin blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
           <t xml:space="preserve">L'utilisation du vin en cuisine couvre une gamme de mets importante. Elle se retrouve dans les soupes, entrées, poissons, coquillages, fruits de mer, volailles, viandes, abats, gibiers, légumes, farineux, champignons, fromages et desserts.
-Soupes
-Entrées
-Poissons
-Coquillages et fruits de mer
-Volailles
-Abats et charcuteries
-Viandes
-Gibiers
-Légumes et farineux
-Champignons
-Fromages
-Préparations fromagères
-Desserts
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Soupes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Entrées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Coquillages et fruits de mer</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Volailles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Abats et charcuteries</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Viandes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Gibiers</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Légumes et farineux</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Champignons</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fromages</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Préparations fromagères</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_et_cuisine</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cuisine au vin</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Desserts</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
